--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,78 @@
   </si>
   <si>
     <t>Écriture du premier mail avec toutes les informations pour lancer le projet. (différents liens, planification initial, etc…)</t>
+  </si>
+  <si>
+    <t>Analyse concurentielle</t>
+  </si>
+  <si>
+    <t>Analyse concurentielle pour le produit faite et ajoutée à la documentation</t>
+  </si>
+  <si>
+    <t>Étude de faisabilité</t>
+  </si>
+  <si>
+    <t>Ajout de l'étude de faisabilité effectuée dans la documentation</t>
+  </si>
+  <si>
+    <t>Choix du nom de domaine et du site</t>
+  </si>
+  <si>
+    <t>Intégration de la planification détaillé</t>
+  </si>
+  <si>
+    <t>Intégration de la planification détaillée dans la documentation</t>
+  </si>
+  <si>
+    <t>Analyse de l'environnement</t>
+  </si>
+  <si>
+    <t>Ajout du résultat de l'analyse de l'environnement dans la documentation</t>
+  </si>
+  <si>
+    <t>Création MCD</t>
+  </si>
+  <si>
+    <t>Analyse et création du MCD, ajout de ce dernier dans la documentation</t>
+  </si>
+  <si>
+    <t>Création MLD</t>
+  </si>
+  <si>
+    <t>Analyse et création du MLD, sur les bases du MCD, ajout de ce dernier dans la documentation</t>
+  </si>
+  <si>
+    <t>Création des cas d'utilisation</t>
+  </si>
+  <si>
+    <t>Commencement de l'ajout des cas d'utilisation à la documentation</t>
+  </si>
+  <si>
+    <t>Création de l'arborescence du site</t>
+  </si>
+  <si>
+    <t>Définition de la charte graphique</t>
+  </si>
+  <si>
+    <t>Analyse et réalisation de la charte graphique du site, ajout dans la documentation</t>
+  </si>
+  <si>
+    <t>Analyse et réalisation de l'arborescence du site et ajout de ces informations dans la documentation</t>
+  </si>
+  <si>
+    <t>Fin des cas d'utilisation</t>
+  </si>
+  <si>
+    <t>Ajout de différents cas d'utilisation pour clôturer ce point</t>
+  </si>
+  <si>
+    <t>Avancement des maquettes graphiques</t>
+  </si>
+  <si>
+    <t>Ajout de proposition pour le nom de domaine et du site web dans la documentation et vérification pour savoir si les noms de domaines étaient libres</t>
+  </si>
+  <si>
+    <t>Maquettes graphiques</t>
   </si>
 </sst>
 </file>
@@ -310,38 +382,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,22 +407,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -395,7 +467,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -413,7 +485,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -430,7 +502,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -508,13 +580,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="C2:F80"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="3" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" name="Temps" dataDxfId="1"/>
-    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="4"/>
+    <tableColumn id="3" name="Date" dataDxfId="3"/>
+    <tableColumn id="4" name="Temps" dataDxfId="2"/>
+    <tableColumn id="5" name="Description supplémentaire" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,8 +860,8 @@
   </sheetPr>
   <dimension ref="B1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,562 +893,658 @@
       </c>
     </row>
     <row r="3" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="15">
         <v>44319</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <v>45</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="18">
         <v>44319</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="19">
         <v>30</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="18">
         <v>44319</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="20">
         <v>30</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="21">
         <v>44319</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="20">
         <v>20</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="21">
         <v>44319</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="20">
         <v>70</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="21">
         <v>44319</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="20">
         <v>20</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="21">
         <v>44319</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="20">
         <v>60</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="21">
         <v>44319</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="20">
         <v>30</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="21">
         <v>44319</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="20">
         <v>60</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="21">
         <v>44319</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="20">
         <v>20</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E13" s="20">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="19"/>
+      <c r="C14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E14" s="20">
+        <v>10</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E15" s="20">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E16" s="20">
+        <v>10</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E17" s="20">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E18" s="20">
+        <v>60</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="19"/>
+      <c r="C19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E19" s="20">
+        <v>40</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E20" s="20">
+        <v>60</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E21" s="20">
+        <v>10</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E22" s="20">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="19"/>
+      <c r="C23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E23" s="20">
+        <v>30</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="19"/>
+      <c r="C24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="21">
+        <v>44320</v>
+      </c>
+      <c r="E24" s="20">
+        <v>60</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="19"/>
-      <c r="H28" s="21"/>
-      <c r="O28" s="21"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="19"/>
-      <c r="O29" s="21"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="10"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="19"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="19"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="19"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="19"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="19"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="19"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="19"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="19"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="19"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="19"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="19"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="10"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="19"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="19"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="19"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="22"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="22"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="22"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="22"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="22"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="19"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="19"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="19"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="10"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="19"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="19"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="10"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="19"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="19"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="19"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="10"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="19"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="19"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="19"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="19"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="19"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="10"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="19"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="10"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="19"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="19"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="19"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="10"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="19"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="10"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="19"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="10"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="19"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="10"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="19"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="19"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="10"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="19"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="23"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="19"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="10"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="19"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="19"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="10"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="19"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="16"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,33 @@
   </si>
   <si>
     <t>Maquettes graphiques</t>
+  </si>
+  <si>
+    <t>Ajout de description dans le rapport pour la planification initale et détaillée</t>
+  </si>
+  <si>
+    <t>Méthodologie de travail</t>
+  </si>
+  <si>
+    <t>Ajout de la description de la méthodologie de travail utilisée dans le rapport</t>
+  </si>
+  <si>
+    <t>Ajout de nouvelles maquettes graphiques et finalisation de ces dernières, export en PDF et PNG</t>
+  </si>
+  <si>
+    <t>Ajout des maquettes grpahiques des fonctionnalités les plus "importantes" dans le rapport</t>
+  </si>
+  <si>
+    <t>Discussion avec chef de projet</t>
+  </si>
+  <si>
+    <t>Discussion avec Monsieur Benzonana, par rapport au cahier des charges, modification et signature du cahier des charges modifiés</t>
+  </si>
+  <si>
+    <t>Ajout d'un historique dans le rapport de projet par rapport à la modification du cahier des charges</t>
+  </si>
+  <si>
+    <t>Ajout des stratégies de test à la documentation</t>
   </si>
 </sst>
 </file>
@@ -448,9 +475,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -531,6 +555,9 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -580,13 +607,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="C2:F80"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="4"/>
-    <tableColumn id="3" name="Date" dataDxfId="3"/>
-    <tableColumn id="4" name="Temps" dataDxfId="2"/>
-    <tableColumn id="5" name="Description supplémentaire" dataDxfId="1"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Temps" dataDxfId="1"/>
+    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -860,8 +887,8 @@
   </sheetPr>
   <dimension ref="B1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,49 +1229,105 @@
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="13"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="10"/>
+      <c r="C25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E25" s="20">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="10"/>
+      <c r="C26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E26" s="20">
+        <v>5</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E27" s="20">
+        <v>120</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E28" s="20">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="10"/>
+    <row r="29" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E29" s="20">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="O29" s="11"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="10"/>
+    <row r="30" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E30" s="20">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="21">
+        <v>44322</v>
+      </c>
+      <c r="E31" s="20">
+        <v>55</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="13"/>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Explication du déroulement du TPI par Monsieur Montemayor et explication des attentes.</t>
   </si>
   <si>
-    <t>Mise en place de l'hébergement web, ainsi que de l'hébergement pour la base de données</t>
-  </si>
-  <si>
     <t>Création de la plannification initial</t>
   </si>
   <si>
@@ -204,6 +201,66 @@
   </si>
   <si>
     <t>Ajout des stratégies de test à la documentation</t>
+  </si>
+  <si>
+    <t>Création de la base MVC</t>
+  </si>
+  <si>
+    <t>Création de toute la base MVC du projet</t>
+  </si>
+  <si>
+    <t>Préparation des fichiers</t>
+  </si>
+  <si>
+    <t>Préparation de tous les fichiers nécessaires à la création du projet. Ajout des noms de fonctions de base, etc…</t>
+  </si>
+  <si>
+    <t>Sélection d'un template</t>
+  </si>
+  <si>
+    <t>Sélection d'un template adéquat pour pouvoir par la suite le modifier et l'utiliser pour la réalisation de mon projet</t>
+  </si>
+  <si>
+    <t>Création d'un serveur web de test afin de pouvoir tester l'avancée du projet sans pour autant impacter le serveur web fonctionnel</t>
+  </si>
+  <si>
+    <t>Mise en place de l'hébergement web pour le serveur web fonctionnel, ainsi que de l'hébergement pour la base de données</t>
+  </si>
+  <si>
+    <t>Modification template</t>
+  </si>
+  <si>
+    <t>Modification du template afin d'avoir un premier point de vue, le plus ressemblant possible aux maquettes créées</t>
+  </si>
+  <si>
+    <t>Modification fonction</t>
+  </si>
+  <si>
+    <t>Modification des premières fonctions créées précédemment, afin de pouvoir dans un premier temps accéder à la page de login et d'accueil</t>
+  </si>
+  <si>
+    <t>Ajout de la page de login</t>
+  </si>
+  <si>
+    <t>Création du code nécessaire à la page de login</t>
+  </si>
+  <si>
+    <t>Intégration du template</t>
+  </si>
+  <si>
+    <t>Intégration du template dans le code afin d'avoir un premier point de vue, fonctionnel</t>
+  </si>
+  <si>
+    <t>Création de la base de données</t>
+  </si>
+  <si>
+    <t>Création du script nécessaire à la création de la structure de la base de données du projet</t>
+  </si>
+  <si>
+    <t>Création fonction de login</t>
+  </si>
+  <si>
+    <t>Création des diverses fonctions nécessaire à la fonction de login. Pour l'instant la fonctionnalité n'est pas encore fonctionnel.</t>
   </si>
 </sst>
 </file>
@@ -409,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -426,9 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -442,15 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -467,6 +512,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,8 +667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F82" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F82"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -885,10 +945,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O81"/>
+  <dimension ref="B1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,715 +979,809 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="3:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19">
+        <v>44319</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="14">
         <v>44319</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E4" s="15">
         <v>45</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="17" t="s">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D5" s="14">
         <v>44319</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E5" s="15">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
+    <row r="6" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D6" s="14">
         <v>44319</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E6" s="16">
         <v>30</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
+    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D7" s="17">
         <v>44319</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E7" s="16">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
+      <c r="D8" s="17">
+        <v>44319</v>
+      </c>
+      <c r="E8" s="16">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="21">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="17">
         <v>44319</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E9" s="16">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="17">
+        <v>44319</v>
+      </c>
+      <c r="E10" s="16">
+        <v>60</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="17">
+        <v>44319</v>
+      </c>
+      <c r="E11" s="16">
+        <v>30</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="17">
+        <v>44319</v>
+      </c>
+      <c r="E12" s="16">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="17">
+        <v>44319</v>
+      </c>
+      <c r="E13" s="16">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="12"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E15" s="16">
+        <v>15</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E16" s="16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E17" s="16">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E18" s="16">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E19" s="16">
+        <v>20</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E20" s="16">
+        <v>60</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E21" s="16">
+        <v>40</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E22" s="16">
+        <v>60</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E23" s="16">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E24" s="16">
+        <v>15</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E25" s="16">
+        <v>30</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E26" s="16">
+        <v>60</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E27" s="16">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E28" s="16">
+        <v>5</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E29" s="16">
+        <v>120</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E30" s="16">
+        <v>20</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E31" s="16">
+        <v>15</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E33" s="16">
+        <v>55</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E34" s="16">
+        <v>30</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C35" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E35" s="16">
+        <v>120</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E36" s="16">
+        <v>20</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E37" s="16">
+        <v>10</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E38" s="16">
+        <v>45</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E39" s="16">
+        <v>15</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E40" s="16">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="21">
-        <v>44319</v>
-      </c>
-      <c r="E8" s="20">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="21">
-        <v>44319</v>
-      </c>
-      <c r="E9" s="20">
-        <v>60</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21">
-        <v>44319</v>
-      </c>
-      <c r="E10" s="20">
-        <v>30</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="21">
-        <v>44319</v>
-      </c>
-      <c r="E11" s="20">
-        <v>60</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="21">
-        <v>44319</v>
-      </c>
-      <c r="E12" s="20">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E13" s="20">
-        <v>15</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D41" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E41" s="16">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E15" s="20">
-        <v>10</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E16" s="20">
-        <v>10</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E17" s="20">
-        <v>20</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E18" s="20">
-        <v>60</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E19" s="20">
-        <v>40</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E20" s="20">
-        <v>60</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E21" s="20">
-        <v>10</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E22" s="20">
-        <v>15</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E23" s="20">
-        <v>30</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="21">
-        <v>44320</v>
-      </c>
-      <c r="E24" s="20">
-        <v>60</v>
-      </c>
-      <c r="F24" s="10" t="s">
+      <c r="F41" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E42" s="16">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E25" s="20">
-        <v>15</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E26" s="20">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E27" s="20">
-        <v>120</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E28" s="20">
-        <v>20</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E29" s="20">
-        <v>15</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" s="11"/>
-    </row>
-    <row r="30" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E30" s="20">
-        <v>5</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="21">
-        <v>44322</v>
-      </c>
-      <c r="E31" s="20">
-        <v>55</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="13"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="13"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="13"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="13"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="13"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="13"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="13"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="13"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="13"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="13"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="10"/>
+      <c r="F42" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="17">
+        <v>44323</v>
+      </c>
+      <c r="E43" s="16">
+        <v>45</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="13"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="10"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="13"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="10"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="13"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="13"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="13"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="13"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="13"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="13"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="11"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="13"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="13"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="10"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="13"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="10"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="13"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="13"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="10"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="13"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="13"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="13"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="10"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="13"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="13"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="10"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="13"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="10"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="13"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="10"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="13"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="10"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="13"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="10"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="13"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="10"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="13"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="10"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="9"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="13"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="10"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="13"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="10"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="13"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="10"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="13"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="10"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="13"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="10"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="9"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="13"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="10"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="13"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="10"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="13"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="10"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="13"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="10"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="13"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="10"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="13"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="10"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="4"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="7"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>Date</t>
   </si>
@@ -261,6 +261,117 @@
   </si>
   <si>
     <t>Création des diverses fonctions nécessaire à la fonction de login. Pour l'instant la fonctionnalité n'est pas encore fonctionnel.</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective du premier sprint avec le chef de projet. Divers retour sur le travail déjà effectué. Quelques changements sur la base de données prévues, etc…</t>
+  </si>
+  <si>
+    <t>Création du wiki</t>
+  </si>
+  <si>
+    <t>Création du wiki et création de la sprint review 1. Ajout de cette dernière sur le wiki.</t>
+  </si>
+  <si>
+    <t>Création fonction d'encryption</t>
+  </si>
+  <si>
+    <t>Création fonction basique d'encryption afin de sécuriser les mots de passes d'accès à la base de données</t>
+  </si>
+  <si>
+    <t>Création d'une planification réel</t>
+  </si>
+  <si>
+    <t>Création d'une planification réel. Suite à la discussion avec le chef de projet, nous nous sommes dis que la création d'une planification en temps réel permettrai d'avoir un aperçu réel sur le temps pris par les tâches.</t>
+  </si>
+  <si>
+    <t>Mise à jour fichier connexion BD</t>
+  </si>
+  <si>
+    <t>Mise à jour du fichier de connexion à la BD, avec les identifiants créer pour l'accès uniquement en lecture et écriture.</t>
+  </si>
+  <si>
+    <t>Finition de la page de login</t>
+  </si>
+  <si>
+    <t>Ajout des messages d'erreurs pour informer l'utilisateur qu'une erreur a eu lieu lors de la connexion.</t>
+  </si>
+  <si>
+    <t>Création fonction nouveau utilisateurs et finition fonctions login</t>
+  </si>
+  <si>
+    <t>Création des fonctions de base pour l'ajout de nouvel utiliseur, finitions fonction de login</t>
+  </si>
+  <si>
+    <t>Redirections et correction login</t>
+  </si>
+  <si>
+    <t>Mise en place de toutes les redirections vers les différentes pages web du site, ajout de texte pour informer que les pages sont en construction, ajout de vérification d'accès pour les pages admin. Correction de la fonction de login. Et création et mise en place de la fonction de logout</t>
+  </si>
+  <si>
+    <t>Fonction de connexion LDAPS</t>
+  </si>
+  <si>
+    <t>Création de la fonction LDAPS, après discussion avec le chef de projet, je laisse prête la fonction de login avec LDAPS. J'ai mis en place des commentaires afin de mieux comprendre comment l'utiliser</t>
+  </si>
+  <si>
+    <t>Vérification avant création nouvel utilisateur</t>
+  </si>
+  <si>
+    <t>Ajout d'une vérification lors de l'ajout d'un nouvel utilisateur pour éviter d'avoir la possibilité de créer deux utilisateurs ayant la même adresse e-mail</t>
+  </si>
+  <si>
+    <t>Page d'accueil</t>
+  </si>
+  <si>
+    <t>Commencement de la page d'accueil, base de ça création</t>
+  </si>
+  <si>
+    <t>Mise à jour de la base de données</t>
+  </si>
+  <si>
+    <t>Mise à jour de la base de données avec les éléments discutés avec le chef de projet. Ajout d'une nouvelle relation et ajout de nouveaux statut</t>
+  </si>
+  <si>
+    <t>Mise à jour du MCD + MLD</t>
+  </si>
+  <si>
+    <t>Mise à jour du MCD et du MLD, pour correspondre à la nouvelle architecture de la BD</t>
+  </si>
+  <si>
+    <t>Mise à jour de la documentation</t>
+  </si>
+  <si>
+    <t>Changement de la documentation et explication des choix par rapport à la base de données, modification de la version 2 du MCD/MLD.</t>
+  </si>
+  <si>
+    <t>Mise à jour du script de la BD</t>
+  </si>
+  <si>
+    <t>Ajout des nouveaux éléments dans le script de création de la base de données</t>
+  </si>
+  <si>
+    <t>Ajout système temporaire pour l'ajout nouvel utilisateur</t>
+  </si>
+  <si>
+    <t>Création de la partie front end de la création des nouvels utilisateurs le terme "temporaire" est utilisé car l'aspect visuel n'est pas celui souhaité.</t>
+  </si>
+  <si>
+    <t>Forcer le HTTPS</t>
+  </si>
+  <si>
+    <t>Mise en place d'un bout de code permettant de forcer le HTTPS lors de la venue d'un utilisateur sur le site.</t>
+  </si>
+  <si>
+    <t>Correction fonction temporaire d'ajout d'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction des fonctions d'ajout de nouvel utilisateur et ajout de divers modals afin de gérer les erreurs de manière plus agréable pour les utilisateurs </t>
+  </si>
+  <si>
+    <t>Construction de la page d'accueil</t>
+  </si>
+  <si>
+    <t>Construction de la page d'accueil, beaucoup de temps passer à faire en sorte d'avoir un environnement le plus responsive possible et pour faire en sorte d'avoir quelque chose qui ressemble le plus possible aux maquettes</t>
   </si>
 </sst>
 </file>
@@ -295,7 +406,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -310,21 +421,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -338,33 +434,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -466,65 +536,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -667,8 +725,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F82" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F80"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -945,10 +1003,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O83"/>
+  <dimension ref="B1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,178 +1037,192 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="20"/>
-      <c r="D3" s="19">
+    <row r="3" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
         <v>44319</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="15">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="14">
         <v>44319</v>
       </c>
       <c r="E4" s="15">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="14">
         <v>44319</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17">
         <v>44319</v>
       </c>
       <c r="E6" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="17">
         <v>44319</v>
       </c>
       <c r="E7" s="16">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="17">
         <v>44319</v>
       </c>
       <c r="E8" s="16">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="17">
         <v>44319</v>
       </c>
       <c r="E9" s="16">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="17">
         <v>44319</v>
       </c>
       <c r="E10" s="16">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D11" s="17">
         <v>44319</v>
       </c>
       <c r="E11" s="16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D12" s="17">
         <v>44319</v>
       </c>
       <c r="E12" s="16">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="17">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="E13" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="12"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="17">
+        <v>44320</v>
+      </c>
+      <c r="E14" s="16">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" s="17">
         <v>44320</v>
       </c>
       <c r="E15" s="16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="17">
         <v>44320</v>
@@ -1159,54 +1231,54 @@
         <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D17" s="17">
         <v>44320</v>
       </c>
       <c r="E17" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D18" s="17">
         <v>44320</v>
       </c>
       <c r="E18" s="16">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="17">
         <v>44320</v>
       </c>
       <c r="E19" s="16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="17">
         <v>44320</v>
@@ -1215,134 +1287,137 @@
         <v>60</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D21" s="17">
         <v>44320</v>
       </c>
       <c r="E21" s="16">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D22" s="17">
         <v>44320</v>
       </c>
       <c r="E22" s="16">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D23" s="17">
         <v>44320</v>
       </c>
       <c r="E23" s="16">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D24" s="17">
         <v>44320</v>
       </c>
       <c r="E24" s="16">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D25" s="17">
-        <v>44320</v>
+        <v>44322</v>
       </c>
       <c r="E25" s="16">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="17">
+        <v>44322</v>
+      </c>
+      <c r="E26" s="16">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="D26" s="17">
-        <v>44320</v>
-      </c>
-      <c r="E26" s="16">
-        <v>60</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="D27" s="17">
         <v>44322</v>
       </c>
       <c r="E27" s="16">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D28" s="17">
         <v>44322</v>
       </c>
       <c r="E28" s="16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D29" s="17">
         <v>44322</v>
       </c>
       <c r="E29" s="16">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="3:15" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="12" t="s">
@@ -1352,298 +1427,431 @@
         <v>44322</v>
       </c>
       <c r="E30" s="16">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="O30" s="10"/>
-    </row>
-    <row r="31" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" s="12" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D31" s="17">
         <v>44322</v>
       </c>
       <c r="E31" s="16">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" spans="3:15" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D32" s="17">
         <v>44322</v>
       </c>
       <c r="E32" s="16">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="12" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D33" s="17">
         <v>44322</v>
       </c>
       <c r="E33" s="16">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C34" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D34" s="17">
         <v>44322</v>
       </c>
       <c r="E34" s="16">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="12" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="D35" s="17">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E35" s="16">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C36" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D36" s="17">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E36" s="16">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D37" s="17">
         <v>44323</v>
       </c>
       <c r="E37" s="16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D38" s="17">
         <v>44323</v>
       </c>
       <c r="E38" s="16">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D39" s="17">
         <v>44323</v>
       </c>
       <c r="E39" s="16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D40" s="17">
         <v>44323</v>
       </c>
       <c r="E40" s="16">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D41" s="17">
         <v>44323</v>
       </c>
       <c r="E41" s="16">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D42" s="17">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E42" s="16">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C43" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D43" s="17">
-        <v>44323</v>
+        <v>44326</v>
       </c>
       <c r="E43" s="16">
         <v>45</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="12"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="12"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="12"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="12"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="12"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="12"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="12"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E44" s="16">
+        <v>25</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E45" s="16">
+        <v>25</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E46" s="16">
+        <v>15</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C47" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E47" s="16">
+        <v>15</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E48" s="16">
+        <v>50</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C49" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E49" s="16">
+        <v>40</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C50" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E50" s="16">
+        <v>40</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E51" s="16">
+        <v>30</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="12"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="12"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="12"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="12"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="9"/>
+      <c r="C52" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E52" s="16">
+        <v>15</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="17">
+        <v>44326</v>
+      </c>
+      <c r="E53" s="16">
+        <v>55</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E54" s="16">
+        <v>30</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E55" s="16">
+        <v>45</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="12"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="12"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="12"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="12"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="12"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="9"/>
+      <c r="C56" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E56" s="16">
+        <v>15</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E57" s="16">
+        <v>30</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E58" s="16">
+        <v>40</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E59" s="16">
+        <v>60</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C60" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="17">
+        <v>44327</v>
+      </c>
+      <c r="E60" s="16">
+        <v>125</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="12"/>
@@ -1760,28 +1968,16 @@
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="12"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="9"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="12"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="4"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="7"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -372,6 +372,81 @@
   </si>
   <si>
     <t>Construction de la page d'accueil, beaucoup de temps passer à faire en sorte d'avoir un environnement le plus responsive possible et pour faire en sorte d'avoir quelque chose qui ressemble le plus possible aux maquettes</t>
+  </si>
+  <si>
+    <t>Modification page d'accueil</t>
+  </si>
+  <si>
+    <t>Dernière modification visuel pour la page d'accueil</t>
+  </si>
+  <si>
+    <t>Modification du template de base afin d'avoir un visuel correspondant aux maquettes</t>
+  </si>
+  <si>
+    <t>ajout de notifications</t>
+  </si>
+  <si>
+    <t>J'ai passé pas mal de temps à me réhabituer avec les nouvelles fonctionnalités des modals d'informations de bootstrap V5. Après cela j'ai pu me concentrer sur la réalisation des notifications de connexion utilisateur</t>
+  </si>
+  <si>
+    <t>Modifications cases consommables</t>
+  </si>
+  <si>
+    <t>Ajout de modal</t>
+  </si>
+  <si>
+    <t>Création des différentes modals pour les fonctions de tris</t>
+  </si>
+  <si>
+    <t>Mise à jour documentation</t>
+  </si>
+  <si>
+    <t>Définition et ajout d'un niveau d'incidence pour les stratégies de test</t>
+  </si>
+  <si>
+    <t>Modifications des cases pour les consommables, afin d'obtenir un aspect visuel plus ressemblants aux maquettes et amélioration de la navigation web (plus résponsive). Cela m'a pris du temps parce que j'ai butté sur des petits détails</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective du second sprint avec le chef de projet. Nous avons parlé essentiellements de l'avancée du projet et du code en général.</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective</t>
+  </si>
+  <si>
+    <t>Ajout sprint review</t>
+  </si>
+  <si>
+    <t>Création de la sprint review numéro 2, disponible sur le wiki du dépôt github du projet</t>
+  </si>
+  <si>
+    <t>Mise à jour Trello</t>
+  </si>
+  <si>
+    <t>Mise à jour du Trello suite à la discussion avec le chef de projet</t>
+  </si>
+  <si>
+    <t>Ajout de consommables</t>
+  </si>
+  <si>
+    <t>Ajout de consommables à la base de données, avec toutes les relations nécessaires et je me suis rendu compte de plusieurs erreurs dans la structure de la base de données modifications effectuées dans l'historique</t>
+  </si>
+  <si>
+    <t>Création vue sur la BD</t>
+  </si>
+  <si>
+    <t>Mise en place d'une vue afin de faciliter la sélection des différentes données pour l'affichage. Cela m'a pris passablement de temps et mon collègues Jérôme Jaquemet m'a aidé dans la réalisation de certaines commandes</t>
+  </si>
+  <si>
+    <t>Création fonction récupération des données</t>
+  </si>
+  <si>
+    <t>Création des fonctions de récupération des données nécessaires sur la page d'accueil, que ce soit pour les consommables ou pour les différentes options de tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en forme des données </t>
+  </si>
+  <si>
+    <t>Mise en forme des données récupérées par les fonctions crééer précédemment</t>
   </si>
 </sst>
 </file>
@@ -725,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F80" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F88"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1003,10 +1078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O81"/>
+  <dimension ref="B1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,82 +1929,186 @@
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="12"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="12"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="12"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="12"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="9"/>
+      <c r="C61" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="17">
+        <v>44333</v>
+      </c>
+      <c r="E61" s="16">
+        <v>60</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="17">
+        <v>44333</v>
+      </c>
+      <c r="E62" s="16">
+        <v>45</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C63" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="17">
+        <v>44333</v>
+      </c>
+      <c r="E63" s="16">
+        <v>90</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C64" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="17">
+        <v>44333</v>
+      </c>
+      <c r="E64" s="16">
+        <v>110</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="12"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="9"/>
+      <c r="C65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="17">
+        <v>44333</v>
+      </c>
+      <c r="E65" s="16">
+        <v>45</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="12"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="12"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="12"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="9"/>
+      <c r="C66" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="17">
+        <v>44333</v>
+      </c>
+      <c r="E66" s="16">
+        <v>20</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C67" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E67" s="16">
+        <v>40</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C68" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E68" s="16">
+        <v>30</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="12"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="12"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="12"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="12"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="9"/>
+      <c r="C69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E69" s="16">
+        <v>5</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C70" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E70" s="16">
+        <v>85</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C71" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E71" s="16">
+        <v>90</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C72" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E72" s="16">
+        <v>50</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="12"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="9"/>
+      <c r="C73" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="17">
+        <v>44334</v>
+      </c>
+      <c r="E73" s="16">
+        <v>60</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
@@ -1968,16 +2147,64 @@
       <c r="F79" s="9"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="18"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="4"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="7"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="12"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="9"/>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="12"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="9"/>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="12"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="9"/>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="12"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="12"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="9"/>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="12"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -447,6 +447,90 @@
   </si>
   <si>
     <t>Mise en forme des données récupérées par les fonctions crééer précédemment</t>
+  </si>
+  <si>
+    <t>Fonction augmentation diminution stock</t>
+  </si>
+  <si>
+    <t>Création et mise en place des fonctions de diminution et d'augmentation du stock utile sur la page d'accueil du site.</t>
+  </si>
+  <si>
+    <t>Entretien plannifié avec M. Ruchat</t>
+  </si>
+  <si>
+    <t>Durant cet entretien nous avons fait connaissance, puis nous avons discuté du projet en général et de son avancement.</t>
+  </si>
+  <si>
+    <t>Filtre produits liés</t>
+  </si>
+  <si>
+    <t>Création et mise en place des fonctions nécessaires à la création du filtre pour les éléments liés. Préparation du terrain pour les deux autres options de filtres</t>
+  </si>
+  <si>
+    <t>Filtre marques</t>
+  </si>
+  <si>
+    <t>Création et mise en place des fonctions pour la création du filtre pour les différentes marques disponibles</t>
+  </si>
+  <si>
+    <t>Filtre types</t>
+  </si>
+  <si>
+    <t>Création et mise en place des fonctions pour la création du filtre pour les différents types de consommables disponibles</t>
+  </si>
+  <si>
+    <t>Recherche et apprentissage</t>
+  </si>
+  <si>
+    <t>Recherche et apprentissage sur l'envoie dynamique de commande PHP via JS et l'utilisation de la méthode XMLHtppRequest, lien qui m'a été particulièrement utile lors de mes recherches : https://developer.mozilla.org/fr/docs/Learn/Forms/Sending_forms_through_JavaScript</t>
+  </si>
+  <si>
+    <t>Fonction sauvegarde des stock</t>
+  </si>
+  <si>
+    <t>Création de la fonction permettant de sauvegarder de manière dynamique le stock des consommables. La fonction dynamique a été possible grâce à la phase de recherche faite juste avant</t>
+  </si>
+  <si>
+    <t>Gestion des erreurs</t>
+  </si>
+  <si>
+    <t>Création des différents éléments comme les modals et les différentes conditions nécessaires pour l'affichage de message, de succès ou d'échec de la fonctionnalité.</t>
+  </si>
+  <si>
+    <t>Finition de la page d'accueil</t>
+  </si>
+  <si>
+    <t>Finition ajouter à la page d'accueil</t>
+  </si>
+  <si>
+    <t>Découverte de bugs</t>
+  </si>
+  <si>
+    <t>Bugs découvert lors de tests de fonctionnalités, j'ai ajouté les bugs aux issues sur Github</t>
+  </si>
+  <si>
+    <t>Nouveau consommable</t>
+  </si>
+  <si>
+    <t>Création complète de tous l'affichage de la nouvelle page et modification de fonction afin de permettre de récupérer les bonnes données nécessaires à l'affichage de la page. Mise en forme des données sur la page</t>
+  </si>
+  <si>
+    <t>Plannification réel</t>
+  </si>
+  <si>
+    <t>Mise à jour de la plannification réel du projet, afin de pouvoir garder un peu point de vue réel sur l'avancement du projet.</t>
+  </si>
+  <si>
+    <t>MCD + MLD</t>
+  </si>
+  <si>
+    <t>Mise à jour du MCD et MLD afin de correspondre aux nouvelles modification apportée à la base de données</t>
+  </si>
+  <si>
+    <t>Mise à jour des maquettes graphiques</t>
+  </si>
+  <si>
+    <t>Mise à jour des nouveaux éléments, sauf les maquettes qui ne sont pas encore ajoutées à la doc</t>
   </si>
 </sst>
 </file>
@@ -611,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -635,9 +719,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -668,7 +749,10 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -750,9 +834,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thick">
           <color auto="1"/>
@@ -800,13 +881,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F88" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F95" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="C2:F95"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
-    <tableColumn id="3" name="Date" dataDxfId="2"/>
-    <tableColumn id="4" name="Temps" dataDxfId="1"/>
-    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="4"/>
+    <tableColumn id="3" name="Date" dataDxfId="3"/>
+    <tableColumn id="4" name="Temps" dataDxfId="2"/>
+    <tableColumn id="5" name="Description supplémentaire" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1078,10 +1159,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O89"/>
+  <dimension ref="B1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,13 +1194,13 @@
       </c>
     </row>
     <row r="3" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>44319</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>45</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1127,13 +1208,13 @@
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>44319</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1141,13 +1222,13 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>44319</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
@@ -1155,13 +1236,13 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>44319</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>20</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -1169,13 +1250,13 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>44319</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>70</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -1184,13 +1265,13 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>44319</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>20</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -1198,13 +1279,13 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>44319</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>60</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1212,13 +1293,13 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>44319</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>30</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1226,13 +1307,13 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>44319</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>60</v>
       </c>
       <c r="F11" s="9" t="s">
@@ -1240,13 +1321,13 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>44319</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>20</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -1254,13 +1335,13 @@
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>44320</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>15</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1268,13 +1349,13 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>44320</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -1282,13 +1363,13 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>44320</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -1296,13 +1377,13 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>44320</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -1310,13 +1391,13 @@
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>44320</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>20</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -1324,13 +1405,13 @@
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="16">
         <v>44320</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>60</v>
       </c>
       <c r="F18" s="9" t="s">
@@ -1338,13 +1419,13 @@
       </c>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>44320</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>40</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -1352,13 +1433,13 @@
       </c>
     </row>
     <row r="20" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>44320</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>60</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -1366,13 +1447,13 @@
       </c>
     </row>
     <row r="21" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>44320</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>10</v>
       </c>
       <c r="F21" s="9" t="s">
@@ -1380,13 +1461,13 @@
       </c>
     </row>
     <row r="22" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>44320</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -1394,13 +1475,13 @@
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>44320</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>30</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -1408,13 +1489,13 @@
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>44320</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>60</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -1422,13 +1503,13 @@
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>44322</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>15</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -1436,13 +1517,13 @@
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>44322</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>5</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1450,13 +1531,13 @@
       </c>
     </row>
     <row r="27" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="16">
         <v>44322</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1464,13 +1545,13 @@
       </c>
     </row>
     <row r="28" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>44322</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>20</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -1480,13 +1561,13 @@
       <c r="O28" s="10"/>
     </row>
     <row r="29" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="16">
         <v>44322</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>15</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -1495,13 +1576,13 @@
       <c r="O29" s="10"/>
     </row>
     <row r="30" spans="3:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>44322</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>5</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -1509,13 +1590,13 @@
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>44322</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>55</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -1523,13 +1604,13 @@
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>44322</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>30</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -1537,13 +1618,13 @@
       </c>
     </row>
     <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <v>44322</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>120</v>
       </c>
       <c r="F33" s="9" t="s">
@@ -1551,13 +1632,13 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>44322</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>20</v>
       </c>
       <c r="F34" s="9" t="s">
@@ -1565,13 +1646,13 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="16">
         <v>44323</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>10</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -1579,13 +1660,13 @@
       </c>
     </row>
     <row r="36" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>44323</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>45</v>
       </c>
       <c r="F36" s="9" t="s">
@@ -1593,13 +1674,13 @@
       </c>
     </row>
     <row r="37" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="16">
         <v>44323</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>15</v>
       </c>
       <c r="F37" s="9" t="s">
@@ -1607,13 +1688,13 @@
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>44323</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="15">
         <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
@@ -1621,13 +1702,13 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="16">
         <v>44323</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="15">
         <v>10</v>
       </c>
       <c r="F39" s="9" t="s">
@@ -1635,13 +1716,13 @@
       </c>
     </row>
     <row r="40" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="16">
         <v>44323</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>45</v>
       </c>
       <c r="F40" s="9" t="s">
@@ -1649,13 +1730,13 @@
       </c>
     </row>
     <row r="41" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="16">
         <v>44323</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>45</v>
       </c>
       <c r="F41" s="9" t="s">
@@ -1663,13 +1744,13 @@
       </c>
     </row>
     <row r="42" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <v>44326</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="15">
         <v>55</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -1677,13 +1758,13 @@
       </c>
     </row>
     <row r="43" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>44326</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>45</v>
       </c>
       <c r="F43" s="9" t="s">
@@ -1691,13 +1772,13 @@
       </c>
     </row>
     <row r="44" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <v>44326</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="15">
         <v>25</v>
       </c>
       <c r="F44" s="9" t="s">
@@ -1705,13 +1786,13 @@
       </c>
     </row>
     <row r="45" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <v>44326</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>25</v>
       </c>
       <c r="F45" s="9" t="s">
@@ -1719,13 +1800,13 @@
       </c>
     </row>
     <row r="46" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="16">
         <v>44326</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>15</v>
       </c>
       <c r="F46" s="9" t="s">
@@ -1733,13 +1814,13 @@
       </c>
     </row>
     <row r="47" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>44326</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="15">
         <v>15</v>
       </c>
       <c r="F47" s="9" t="s">
@@ -1747,83 +1828,83 @@
       </c>
     </row>
     <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>44326</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="15">
         <v>50</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="16">
         <v>44326</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="15">
         <v>40</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="16">
         <v>44326</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="15">
         <v>40</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="16">
         <v>44326</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>30</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="16">
         <v>44326</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="15">
         <v>15</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="16">
         <v>44326</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="15">
         <v>55</v>
       </c>
       <c r="F53" s="9" t="s">
@@ -1831,13 +1912,13 @@
       </c>
     </row>
     <row r="54" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="16">
         <v>44327</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="15">
         <v>30</v>
       </c>
       <c r="F54" s="9" t="s">
@@ -1845,13 +1926,13 @@
       </c>
     </row>
     <row r="55" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="16">
         <v>44327</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="15">
         <v>45</v>
       </c>
       <c r="F55" s="9" t="s">
@@ -1859,13 +1940,13 @@
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="16">
         <v>44327</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="15">
         <v>15</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -1873,13 +1954,13 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="16">
         <v>44327</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="15">
         <v>30</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -1887,13 +1968,13 @@
       </c>
     </row>
     <row r="58" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <v>44327</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="15">
         <v>40</v>
       </c>
       <c r="F58" s="9" t="s">
@@ -1901,13 +1982,13 @@
       </c>
     </row>
     <row r="59" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="16">
         <v>44327</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="15">
         <v>60</v>
       </c>
       <c r="F59" s="9" t="s">
@@ -1915,13 +1996,13 @@
       </c>
     </row>
     <row r="60" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="16">
         <v>44327</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="15">
         <v>125</v>
       </c>
       <c r="F60" s="9" t="s">
@@ -1929,13 +2010,13 @@
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="16">
         <v>44333</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="15">
         <v>60</v>
       </c>
       <c r="F61" s="9" t="s">
@@ -1943,13 +2024,13 @@
       </c>
     </row>
     <row r="62" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>44333</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="15">
         <v>45</v>
       </c>
       <c r="F62" s="9" t="s">
@@ -1957,13 +2038,13 @@
       </c>
     </row>
     <row r="63" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <v>44333</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="15">
         <v>90</v>
       </c>
       <c r="F63" s="9" t="s">
@@ -1971,13 +2052,13 @@
       </c>
     </row>
     <row r="64" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <v>44333</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="15">
         <v>110</v>
       </c>
       <c r="F64" s="9" t="s">
@@ -1985,13 +2066,13 @@
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>44333</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="15">
         <v>45</v>
       </c>
       <c r="F65" s="9" t="s">
@@ -1999,69 +2080,69 @@
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>44333</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="15">
         <v>20</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <v>44334</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="15">
         <v>40</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="F67" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <v>44334</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="15">
         <v>30</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="F68" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>44334</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="15">
         <v>5</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="16">
         <v>44334</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="15">
         <v>85</v>
       </c>
       <c r="F70" s="9" t="s">
@@ -2069,27 +2150,27 @@
       </c>
     </row>
     <row r="71" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>44334</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="15">
         <v>90</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="F71" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="16">
         <v>44334</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="15">
         <v>50</v>
       </c>
       <c r="F72" s="9" t="s">
@@ -2097,114 +2178,276 @@
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="16">
         <v>44334</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="15">
         <v>60</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="F73" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="12"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="12"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="12"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="12"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="9"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="12"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="12"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="12"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="12"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="9"/>
+    <row r="74" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C74" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E74" s="15">
+        <v>80</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C75" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E75" s="15">
+        <v>20</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C76" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E76" s="15">
+        <v>80</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C77" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E77" s="15">
+        <v>10</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C78" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E78" s="15">
+        <v>10</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="C79" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D79" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E79" s="15">
+        <v>60</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C80" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E80" s="15">
+        <v>60</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C81" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E81" s="15">
+        <v>30</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="12"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="12"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="12"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="12"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="12"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="9"/>
+      <c r="C82" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E82" s="15">
+        <v>60</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C83" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E83" s="15">
+        <v>20</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C84" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="16">
+        <v>44337</v>
+      </c>
+      <c r="E84" s="15">
+        <v>90</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C85" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D85" s="16">
+        <v>44337</v>
+      </c>
+      <c r="E85" s="15">
+        <v>15</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C86" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D86" s="16">
+        <v>44337</v>
+      </c>
+      <c r="E86" s="15">
+        <v>45</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="12"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="18"/>
+      <c r="C87" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="16">
+        <v>44337</v>
+      </c>
+      <c r="E87" s="15">
+        <v>35</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C88" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" s="16">
+        <v>44337</v>
+      </c>
+      <c r="E88" s="15">
+        <v>10</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="4"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="7"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="11"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="11"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="11"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="11"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="9"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="11"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="9"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="4"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -407,12 +407,6 @@
     <t>Modifications des cases pour les consommables, afin d'obtenir un aspect visuel plus ressemblants aux maquettes et amélioration de la navigation web (plus résponsive). Cela m'a pris du temps parce que j'ai butté sur des petits détails</t>
   </si>
   <si>
-    <t>Sprint rétrospective du second sprint avec le chef de projet. Nous avons parlé essentiellements de l'avancée du projet et du code en général.</t>
-  </si>
-  <si>
-    <t>Sprint rétrospective</t>
-  </si>
-  <si>
     <t>Ajout sprint review</t>
   </si>
   <si>
@@ -482,9 +476,6 @@
     <t>Recherche et apprentissage</t>
   </si>
   <si>
-    <t>Recherche et apprentissage sur l'envoie dynamique de commande PHP via JS et l'utilisation de la méthode XMLHtppRequest, lien qui m'a été particulièrement utile lors de mes recherches : https://developer.mozilla.org/fr/docs/Learn/Forms/Sending_forms_through_JavaScript</t>
-  </si>
-  <si>
     <t>Fonction sauvegarde des stock</t>
   </si>
   <si>
@@ -531,6 +522,65 @@
   </si>
   <si>
     <t>Mise à jour des nouveaux éléments, sauf les maquettes qui ne sont pas encore ajoutées à la doc</t>
+  </si>
+  <si>
+    <t>Correction fonction dynamique</t>
+  </si>
+  <si>
+    <t>Correction de la fonction dynamique qui posait problème sur le serveur de production. Ajout d'un élément de la fonctionnalité oublié qui permet de sauvegarder les différentes actions dans la base de données. J'ai rencontré quelques problèmes à ce sujet notamment du au fait que je n'arrivai pas à récupérer la session lors du call de la fonction php. Le problème a été contourné et résolu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Recherche et apprentissage sur l'envoie dynamique de commande PHP via JS et l'utilisation de la méthode XMLHtppRequest, lien qui m'a été particulièrement utile lors de mes recherches : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://developer.mozilla.org/fr/docs/Learn/Forms/Sending_forms_throug</t>
+    </r>
+  </si>
+  <si>
+    <t>Création de la vue admin</t>
+  </si>
+  <si>
+    <t>Création de tous les éléments nécessaires à la page de gestionnaire administrateur. Création du visuel respectant la maquette créé au préalable. Mise en place de fonction permettant la récupération des données. Et affichage de ces données.</t>
+  </si>
+  <si>
+    <t>Préparation des fonctions nécessaire page admin</t>
+  </si>
+  <si>
+    <t>Préparation des fonctions qui seront nécessaires pour le bon fonctionnement des différentes fonctionnalités disponibles sur la page de gestionnaire administrateur.</t>
+  </si>
+  <si>
+    <t>Création sprint rétrospective3</t>
+  </si>
+  <si>
+    <t>Rendez-vous M. Benzonana</t>
+  </si>
+  <si>
+    <t>Sprint review</t>
+  </si>
+  <si>
+    <t>Sprint review du second sprint avec le chef de projet. Nous avons parlé essentiellements de l'avancée du projet et du code en général.</t>
+  </si>
+  <si>
+    <t>Sprint review avec le chef de projet. Lors de cet entretien nous avons essentiellement parler de l'avancée en général du projet.</t>
+  </si>
+  <si>
+    <t>Création de la sprint rétrospective numéro 3, disponible sur le wiki du dépôt github pour plus d'information</t>
   </si>
 </sst>
 </file>
@@ -540,7 +590,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ &quot;minutes&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +602,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -692,10 +750,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -743,14 +802,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -834,6 +894,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thick">
           <color auto="1"/>
@@ -881,13 +944,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F95" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="C2:F95"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F94" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F94"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâche" dataDxfId="4"/>
-    <tableColumn id="3" name="Date" dataDxfId="3"/>
-    <tableColumn id="4" name="Temps" dataDxfId="2"/>
-    <tableColumn id="5" name="Description supplémentaire" dataDxfId="1"/>
+    <tableColumn id="1" name="Tâche" dataDxfId="3"/>
+    <tableColumn id="3" name="Date" dataDxfId="2"/>
+    <tableColumn id="4" name="Temps" dataDxfId="1"/>
+    <tableColumn id="5" name="Description supplémentaire" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1159,10 +1222,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O96"/>
+  <dimension ref="B1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2158,7 @@
     </row>
     <row r="67" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C67" s="11" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D67" s="16">
         <v>44334</v>
@@ -2104,12 +2167,12 @@
         <v>40</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C68" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D68" s="16">
         <v>44334</v>
@@ -2118,12 +2181,12 @@
         <v>30</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D69" s="16">
         <v>44334</v>
@@ -2132,12 +2195,12 @@
         <v>5</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="16">
         <v>44334</v>
@@ -2146,12 +2209,12 @@
         <v>85</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C71" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" s="16">
         <v>44334</v>
@@ -2160,12 +2223,12 @@
         <v>90</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C72" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D72" s="16">
         <v>44334</v>
@@ -2174,12 +2237,12 @@
         <v>50</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="16">
         <v>44334</v>
@@ -2188,12 +2251,12 @@
         <v>60</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C74" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D74" s="16">
         <v>44336</v>
@@ -2202,12 +2265,12 @@
         <v>80</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D75" s="16">
         <v>44336</v>
@@ -2216,12 +2279,12 @@
         <v>20</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C76" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="16">
         <v>44336</v>
@@ -2230,12 +2293,12 @@
         <v>80</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C77" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D77" s="16">
         <v>44336</v>
@@ -2244,12 +2307,12 @@
         <v>10</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C78" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D78" s="16">
         <v>44336</v>
@@ -2258,12 +2321,12 @@
         <v>10</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" ht="75" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="C79" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D79" s="16">
         <v>44336</v>
@@ -2271,13 +2334,13 @@
       <c r="E79" s="15">
         <v>60</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>149</v>
+      <c r="F79" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C80" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D80" s="16">
         <v>44336</v>
@@ -2286,12 +2349,12 @@
         <v>60</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C81" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D81" s="16">
         <v>44336</v>
@@ -2300,12 +2363,12 @@
         <v>30</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D82" s="16">
         <v>44336</v>
@@ -2314,12 +2377,12 @@
         <v>60</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C83" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D83" s="16">
         <v>44336</v>
@@ -2328,12 +2391,12 @@
         <v>20</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C84" s="11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D84" s="16">
         <v>44337</v>
@@ -2342,12 +2405,12 @@
         <v>90</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C85" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D85" s="16">
         <v>44337</v>
@@ -2356,12 +2419,12 @@
         <v>15</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C86" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D86" s="16">
         <v>44337</v>
@@ -2370,7 +2433,7 @@
         <v>45</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
@@ -2384,7 +2447,7 @@
         <v>35</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="3:6" ht="30" x14ac:dyDescent="0.25">
@@ -2398,62 +2461,99 @@
         <v>10</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="11"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="11"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="11"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="11"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="11"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="9"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C89" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D89" s="16">
+        <v>44338</v>
+      </c>
+      <c r="E89" s="15">
+        <v>35</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="C90" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="16">
+        <v>44341</v>
+      </c>
+      <c r="E90" s="15">
+        <v>100</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C91" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="16">
+        <v>44341</v>
+      </c>
+      <c r="E91" s="15">
+        <v>90</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C92" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="16">
+        <v>44341</v>
+      </c>
+      <c r="E92" s="15">
+        <v>50</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C93" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="16">
+        <v>44341</v>
+      </c>
+      <c r="E93" s="15">
+        <v>20</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="11"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="9"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="17"/>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="4"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="7"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F79" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="152" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="152" scale="69" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -581,6 +581,48 @@
   </si>
   <si>
     <t>Création de la sprint rétrospective numéro 3, disponible sur le wiki du dépôt github pour plus d'information</t>
+  </si>
+  <si>
+    <t>Statut admin</t>
+  </si>
+  <si>
+    <t>Création de la fonction permettant de changer le statut des utilisateurs entre admin et utilisateur par défaut.</t>
+  </si>
+  <si>
+    <t>Fonction de suppresion d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Fonction de désactivation d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Fonction de réactivation d'un utilisateur</t>
+  </si>
+  <si>
+    <t>Fonction nécessaire à la suppresion d'un utilisateur. Mise en place de nouveaux éléments graphique pour avoir un meilleur aperçu visuel. Fonction dynamique. Message d'erreur ou de succès encore à modifier.</t>
+  </si>
+  <si>
+    <t>Fonction nécessaire à la désactivation d'un utilisateur. Fonction dynamique et à nouveau message d'erreur ou de succès encore à modifier</t>
+  </si>
+  <si>
+    <t>Fonction de réactivation des utilisateur faite de manière dynamique, les notifications restent encore à être remodelée.</t>
+  </si>
+  <si>
+    <t>Création modal nouvel utilisateur</t>
+  </si>
+  <si>
+    <t>Création d'une fenêtre modal permettant d'ajouter un nouvel utilisateur.</t>
+  </si>
+  <si>
+    <t>Transfère et modification fonction pour l'ajout de nouvel utilisateur</t>
+  </si>
+  <si>
+    <t>Transfère des fonctions nécessaires à la création d'un nouvel utilisateur et mise en place d'une fonction dynamique pour rendre l'ajout de nouvel utilisateur plus agréable.</t>
+  </si>
+  <si>
+    <t>Création fonction sauvegarde nouveau consommable</t>
+  </si>
+  <si>
+    <t>Création des fonctions nécessaires à l'ajout de nouveaux consommables. Je me suis aussi rendu compte que j'avais oublié d'ajouter le champ "marque" pour les consommables. J'ai donc ajouté ce champ et terminer les fonctions.</t>
   </si>
 </sst>
 </file>
@@ -944,8 +986,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F94" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F106" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F106"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1222,10 +1264,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O95"/>
+  <dimension ref="B1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,17 +2576,145 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="4"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="7"/>
+    <row r="94" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C94" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="16">
+        <v>44343</v>
+      </c>
+      <c r="E94" s="15">
+        <v>80</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C95" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D95" s="16">
+        <v>44343</v>
+      </c>
+      <c r="E95" s="15">
+        <v>40</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C96" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="16">
+        <v>44343</v>
+      </c>
+      <c r="E96" s="15">
+        <v>30</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C97" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="16">
+        <v>44343</v>
+      </c>
+      <c r="E97" s="15">
+        <v>30</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" s="16">
+        <v>44344</v>
+      </c>
+      <c r="E98" s="15">
+        <v>25</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C99" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D99" s="16">
+        <v>44344</v>
+      </c>
+      <c r="E99" s="15">
+        <v>40</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C100" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" s="16">
+        <v>44344</v>
+      </c>
+      <c r="E100" s="15">
+        <v>100</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="11"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="11"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="11"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="11"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="11"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="4"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -623,6 +623,69 @@
   </si>
   <si>
     <t>Création des fonctions nécessaires à l'ajout de nouveaux consommables. Je me suis aussi rendu compte que j'avais oublié d'ajouter le champ "marque" pour les consommables. J'ai donc ajouté ce champ et terminer les fonctions.</t>
+  </si>
+  <si>
+    <t>Sprint review effectuée avec M. Benzonana, petite revue de l'avancée du projet.</t>
+  </si>
+  <si>
+    <t>Sprint rétrospective</t>
+  </si>
+  <si>
+    <t>Création de la sprint rétrospective numéro 4, disponible sur le wiki du dépôt github pour plus d'information</t>
+  </si>
+  <si>
+    <t>Correction de bugs</t>
+  </si>
+  <si>
+    <t>Ajout d'élément à la documentation</t>
+  </si>
+  <si>
+    <t>Modification des titres des pages</t>
+  </si>
+  <si>
+    <t>Vérification nouveau consommable</t>
+  </si>
+  <si>
+    <t>Correction de bugs lors de l'ajout de nouvel utilisateur. Le statut admin ou non n'était pas fonctionnel, issue disponible sur github, créée le 31.05.2021 par M. Benzonana, ayant pour titre : Nouvel utilisateur admin</t>
+  </si>
+  <si>
+    <t>Résolution de bugs d'affichage sur IOS. Cela m'a pris du temps à comprendre ce qui ne fonctionnait pas. J'ai dû rechercher pas mal de temps avant de comprendre que ce n'était qu'une histoire de priorité des balises.</t>
+  </si>
+  <si>
+    <t>Ajout de la bibliographie du projet, de la liste des documents fournis, la conclusion, le rapport de mise en service, le dossier d'archivage et le dossier de réalisation</t>
+  </si>
+  <si>
+    <t>Modification pour avoir des titres correctes pour chaque page de la plateforme web.</t>
+  </si>
+  <si>
+    <t>Ajout de nouvelle vérification lors de l'ajout de nouveau consommable. Dans le but d'éviter un maximum d'erreur.</t>
+  </si>
+  <si>
+    <t>Modification de notification</t>
+  </si>
+  <si>
+    <t>Modification de notifications pour l'ajout de nouvel utilisateur et pour le changement de statut des utilisateurs (désactivation/réactivation/suppression des comptes), modification des dernières notifications nécessaires sur la page admin et modification sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Manuel d'installation</t>
+  </si>
+  <si>
+    <t>Résumé</t>
+  </si>
+  <si>
+    <t>Création du manuel d'installation</t>
+  </si>
+  <si>
+    <t>Création du résumé</t>
+  </si>
+  <si>
+    <t>Réalisation des tests</t>
+  </si>
+  <si>
+    <t>Réalisation des différents tests contenu dans la documentation.</t>
+  </si>
+  <si>
+    <t>Documentation des erreurs restantes sur la plateforme web</t>
   </si>
 </sst>
 </file>
@@ -796,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -845,6 +908,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,8 +1052,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F106" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F117" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F117"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1264,10 +1330,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O107"/>
+  <dimension ref="B1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,46 +2741,208 @@
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="11"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="11"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="11"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="11"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="11"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="9"/>
-    </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="17"/>
-    </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="4"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="7"/>
+      <c r="C101" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E101" s="15">
+        <v>20</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E102" s="15">
+        <v>20</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C103" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D103" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E103" s="15">
+        <v>40</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C104" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D104" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E104" s="15">
+        <v>90</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C105" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D105" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E105" s="15">
+        <v>150</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C106" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E106" s="15">
+        <v>10</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C107" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E107" s="15">
+        <v>45</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="C108" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D108" s="16">
+        <v>44348</v>
+      </c>
+      <c r="E108" s="15">
+        <v>120</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D109" s="16">
+        <v>44348</v>
+      </c>
+      <c r="E109" s="15">
+        <v>30</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" s="16">
+        <v>44348</v>
+      </c>
+      <c r="E110" s="15">
+        <v>30</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111" s="16">
+        <v>44348</v>
+      </c>
+      <c r="E111" s="15">
+        <v>120</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="16">
+        <v>44348</v>
+      </c>
+      <c r="E112" s="15">
+        <v>30</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="11"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="11"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="11"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="11"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="20"/>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="4"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/journalDeTravailMPI.xlsx
+++ b/Documentation/journalDeTravailMPI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="237">
   <si>
     <t>Date</t>
   </si>
@@ -686,6 +686,84 @@
   </si>
   <si>
     <t>Documentation des erreurs restantes sur la plateforme web</t>
+  </si>
+  <si>
+    <t>Check du code</t>
+  </si>
+  <si>
+    <t>Vérification des commentaires, du code et élimination de fonction non utilisée</t>
+  </si>
+  <si>
+    <t>Création diagramme de flux</t>
+  </si>
+  <si>
+    <t>Création d'un diagramme de flux pour la fonction de création de nouvel utilisateur</t>
+  </si>
+  <si>
+    <t>Modification du résumé</t>
+  </si>
+  <si>
+    <t>Création de la doc doxygen</t>
+  </si>
+  <si>
+    <t>Correction bugs</t>
+  </si>
+  <si>
+    <t>Modification script BD</t>
+  </si>
+  <si>
+    <t>Ajout et modification rapport</t>
+  </si>
+  <si>
+    <t>Manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>Modification manuel installation</t>
+  </si>
+  <si>
+    <t>Commencement archive projet</t>
+  </si>
+  <si>
+    <t>Modification de quelques éléments dans le résumé et dernière petite retouche visuel</t>
+  </si>
+  <si>
+    <t>Exportation de la documentation "technique" avec doxygen via les commentaires créer dans le code</t>
+  </si>
+  <si>
+    <t>Correction d'un bug de dernière minute avec le login. Plus d'information dans les issues fermées sur le dépôt GitHub.</t>
+  </si>
+  <si>
+    <t>Modification du script BD pour correspondre à la dernière version et ajout des données en plus avec le script.</t>
+  </si>
+  <si>
+    <t>Dernière modification du rapport, modification des dernières images, vérification du contenu, ajout de certain points oubliés.</t>
+  </si>
+  <si>
+    <t>Création du manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>Modification visuel suite à la création du manuel d'utilisation, j'ai remarqué quelques points à modifier.</t>
+  </si>
+  <si>
+    <t>Création du dossier d'archive du projet.</t>
+  </si>
+  <si>
+    <t>Dernière modification de la doc</t>
+  </si>
+  <si>
+    <t>Vérification de tous les éléments de la documentation, avec vérification de l'orthographe des documents.</t>
+  </si>
+  <si>
+    <t>Finalisation du dossier d'archivage</t>
+  </si>
+  <si>
+    <t>Impression des documents</t>
+  </si>
+  <si>
+    <t>Impression de tous les documents et préparation pour le rendu</t>
+  </si>
+  <si>
+    <t>Création du sprint rétrosprective pour ce sprint final.</t>
   </si>
 </sst>
 </file>
@@ -859,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -911,6 +989,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1052,8 +1133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F117" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="C2:F117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F126" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="C2:F126"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1330,10 +1411,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O118"/>
+  <dimension ref="B1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,40 +2990,206 @@
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="11"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="11"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="11"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C116" s="11"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="4"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="7"/>
+      <c r="C113" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E113" s="15">
+        <v>45</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C114" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D114" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E114" s="15">
+        <v>15</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C115" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D115" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E115" s="15">
+        <v>15</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C116" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D116" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E116" s="15">
+        <v>30</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C117" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E117" s="15">
+        <v>20</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C118" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D118" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E118" s="15">
+        <v>60</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C119" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E119" s="15">
+        <v>90</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E120" s="15">
+        <v>90</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C121" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E121" s="15">
+        <v>30</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C122" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="16">
+        <v>44350</v>
+      </c>
+      <c r="E122" s="15">
+        <v>10</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C123" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="16">
+        <v>44351</v>
+      </c>
+      <c r="E123" s="15">
+        <v>60</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D124" s="16">
+        <v>44351</v>
+      </c>
+      <c r="E124" s="15">
+        <v>15</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C125" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="16">
+        <v>44351</v>
+      </c>
+      <c r="E125" s="15">
+        <v>30</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C126" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="21">
+        <v>44351</v>
+      </c>
+      <c r="E126" s="18">
+        <v>15</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="4"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
